--- a/biology/Histoire de la zoologie et de la botanique/David_Keilin/David_Keilin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Keilin/David_Keilin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Keilin (21 mars 1887 Moscou - 27 février 1963 Cambridge) est un entomologiste et parasitologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille retourne à Varsovie peu après sa naissance. En raison de problèmes de santé il n'entame sa scolarité qu'à l'âge de dix ans. Sept ans plus tard il rejoint l'université de Liège puis le Magdalene College de Cambridge. Keilin prend la nationalité britannique à cette époque.
 Keilin devient assistant de George Nuttall (1862-1937), premier professeur de biologie à l'université de Cambridge. Il succède à Nuttall à sa chaire de biologie en 1931. Il se retire en 1962.
